--- a/data/Supplementary Data/Supplementary Data 8.xlsx
+++ b/data/Supplementary Data/Supplementary Data 8.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="31140" windowHeight="15660" activeTab="3"/>
+    <workbookView windowWidth="28020" windowHeight="14670" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ImmuCycRegFramework_Gene-Sample" sheetId="5" r:id="rId1"/>
@@ -377,9 +377,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -897,10 +897,10 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1412,7 +1412,7 @@
   <dimension ref="A1:D341"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="U19" sqref="U19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -6206,7 +6206,7 @@
   <sheetPr/>
   <dimension ref="A1:G661"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -25002,7 +25002,7 @@
   <sheetPr/>
   <dimension ref="A1:D66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
